--- a/防火墙白名单/SDA/SDA-防火墙白名单.xlsx
+++ b/防火墙白名单/SDA/SDA-防火墙白名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="背景" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>1、C2L域控通过ETH接到驾舱的switch，驾舱TBOX也接到switch上；C2L与外部通信时，数据流转到TBOX后做NAT后出去
 2、TBOX自身能力很弱，防火墙理论上放到车机的switch去实现会更合适。但由于信息安全认为需求在开发阶段才提给他们，认为不合适，所以还是由域控实现</t>
@@ -105,6 +105,12 @@
     <t>CD701-G、C798复用防火墙白名单配置，相比V1.6无新增规则</t>
   </si>
   <si>
+    <t>V1.8</t>
+  </si>
+  <si>
+    <t>CX810、C390复用防火墙配置，相比V1.6无新增规则</t>
+  </si>
+  <si>
     <t>车型</t>
   </si>
   <si>
@@ -119,7 +125,9 @@
   <si>
     <t>CD701
 CD701-G
-C798</t>
+C798
+CX810
+C390</t>
   </si>
   <si>
     <t>目的MAC</t>
@@ -1323,10 +1331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
@@ -1439,6 +1447,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1451,10 +1470,10 @@
   <sheetPr/>
   <dimension ref="A1:W179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
@@ -1474,13 +1493,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="45" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1489,35 +1508,35 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:23">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1536,20 +1555,20 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="2:23">
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1569,17 +1588,17 @@
     <row r="4" s="3" customFormat="1" spans="2:23">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1599,17 +1618,17 @@
     <row r="5" s="3" customFormat="1" spans="2:23">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1629,17 +1648,17 @@
     <row r="6" s="3" customFormat="1" spans="2:23">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1659,17 +1678,17 @@
     <row r="7" s="3" customFormat="1" spans="2:23">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1689,17 +1708,17 @@
     <row r="8" s="3" customFormat="1" spans="2:23">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1719,20 +1738,20 @@
     <row r="9" s="3" customFormat="1" spans="2:23">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1751,17 +1770,17 @@
     <row r="10" s="3" customFormat="1" spans="2:23">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="6"/>
@@ -1783,16 +1802,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1813,13 +1832,13 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="6"/>
@@ -1862,17 +1881,17 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="2:23">
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1895,12 +1914,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1923,12 +1942,12 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1951,12 +1970,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1979,16 +1998,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2009,12 +2028,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
@@ -2058,19 +2077,19 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="2:23">
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6">
         <v>53</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2114,19 +2133,19 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="2:23">
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6">
         <v>80</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2149,14 +2168,14 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24" s="6">
         <v>443</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2179,18 +2198,18 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" s="6">
         <v>8863</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2232,22 +2251,22 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="2:23">
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G27" s="6">
         <v>7400</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -2268,17 +2287,17 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G28" s="6">
         <v>8400</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -2299,17 +2318,17 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G29" s="6">
         <v>8400</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -2330,17 +2349,17 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G30" s="6">
         <v>8401</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2361,17 +2380,17 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31" s="6">
         <v>7400</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2392,17 +2411,17 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G32" s="6">
         <v>7401</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2423,15 +2442,15 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2452,11 +2471,11 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2499,18 +2518,18 @@
     </row>
     <row r="36" s="3" customFormat="1" spans="2:23">
       <c r="B36" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G36" s="6">
         <v>51200</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2553,18 +2572,18 @@
     </row>
     <row r="38" s="3" customFormat="1" spans="2:23">
       <c r="B38" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38" s="6">
         <v>13402</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -2587,13 +2606,13 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" s="6">
         <v>13400</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2616,17 +2635,17 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G40" s="6">
         <v>56001</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -2647,13 +2666,13 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G41" s="6">
         <v>56002</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="11"/>
@@ -2697,7 +2716,7 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="2:23">
       <c r="B43" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="6"/>
@@ -2705,7 +2724,7 @@
         <v>5037</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -2747,19 +2766,19 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="2:23">
       <c r="B45" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2781,15 +2800,15 @@
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -2833,7 +2852,7 @@
     </row>
     <row r="48" s="3" customFormat="1" spans="2:23">
       <c r="B48" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2843,11 +2862,11 @@
         <v>22</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -2889,19 +2908,19 @@
     </row>
     <row r="50" s="3" customFormat="1" spans="2:23">
       <c r="B50" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -2943,23 +2962,23 @@
     </row>
     <row r="52" s="3" customFormat="1" spans="2:23">
       <c r="B52" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6">
         <v>6680</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -2980,14 +2999,14 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
         <v>1933</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="9"/>
@@ -3010,14 +3029,14 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6">
         <v>1111</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="9"/>
@@ -6075,7 +6094,7 @@
   <sheetData>
     <row r="1" ht="100" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
